--- a/INTLINE/data/134/IFO/ifo Export Expectations.xlsx
+++ b/INTLINE/data/134/IFO/ifo Export Expectations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs2012\Graph-WA$\Presse\Exporterwartungen\2022\03 März\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs2012\Graph-WA$\Presse\Exporterwartungen\2022\05 Mai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,8 +481,8 @@
   <dimension ref="A1:F386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
+      <pane ySplit="9" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J380" sqref="J380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
       <c r="A10" s="13">
         <v>33269</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>-11.788069999999999</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
       <c r="A11" s="13">
         <v>33297</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="16">
         <v>-5.9468899999999998</v>
       </c>
     </row>
@@ -569,7 +569,7 @@
       <c r="A12" s="13">
         <v>33328</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="16">
         <v>-8.0904900000000008</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
       <c r="A13" s="13">
         <v>33358</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="16">
         <v>-4.9242600000000003</v>
       </c>
     </row>
@@ -585,7 +585,7 @@
       <c r="A14" s="13">
         <v>33389</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="16">
         <v>-4.78301</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
       <c r="A15" s="13">
         <v>33419</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="16">
         <v>-3.19577</v>
       </c>
     </row>
@@ -601,7 +601,7 @@
       <c r="A16" s="13">
         <v>33450</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="16">
         <v>-0.43985999999999997</v>
       </c>
     </row>
@@ -609,7 +609,7 @@
       <c r="A17" s="13">
         <v>33481</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="16">
         <v>-0.88639000000000001</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
       <c r="A18" s="13">
         <v>33511</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="16">
         <v>1.5407599999999999</v>
       </c>
     </row>
@@ -625,7 +625,7 @@
       <c r="A19" s="13">
         <v>33542</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="16">
         <v>3.0583</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
       <c r="A20" s="13">
         <v>33572</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="16">
         <v>3.8321399999999999</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       <c r="A21" s="13">
         <v>33603</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="16">
         <v>1.78352</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="A22" s="13">
         <v>33634</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="16">
         <v>-0.12436999999999999</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <c r="A23" s="13">
         <v>33663</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="16">
         <v>-2.2047699999999999</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="A24" s="13">
         <v>33694</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="16">
         <v>6.3460000000000003E-2</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="A25" s="13">
         <v>33724</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="16">
         <v>-0.84009</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
       <c r="A26" s="13">
         <v>33755</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="16">
         <v>0.34954000000000002</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="A27" s="13">
         <v>33785</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="16">
         <v>3.1126100000000001</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="A28" s="13">
         <v>33816</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="16">
         <v>0.77512000000000003</v>
       </c>
     </row>
@@ -705,7 +705,7 @@
       <c r="A29" s="13">
         <v>33847</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="16">
         <v>-5.81419</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="A30" s="13">
         <v>33877</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="16">
         <v>-10.562939999999999</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="A31" s="13">
         <v>33908</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="16">
         <v>-16.961369999999999</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="A32" s="13">
         <v>33938</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="16">
         <v>-17.38542</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="A33" s="13">
         <v>33969</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="16">
         <v>-14.55438</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="A34" s="13">
         <v>34000</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="16">
         <v>-10.748379999999999</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="A35" s="13">
         <v>34028</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="16">
         <v>-15.33948</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="A36" s="13">
         <v>34059</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="16">
         <v>-11.71238</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="A37" s="13">
         <v>34089</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="16">
         <v>-13.464980000000001</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="A38" s="13">
         <v>34120</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="16">
         <v>-13.464399999999999</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
       <c r="A39" s="13">
         <v>34150</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="16">
         <v>-9.3676700000000004</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
       <c r="A40" s="13">
         <v>34181</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="16">
         <v>-9.8677700000000002</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="A41" s="13">
         <v>34212</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="16">
         <v>-5.7821100000000003</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="A42" s="13">
         <v>34242</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="16">
         <v>-4.7997800000000002</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="A43" s="13">
         <v>34273</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="16">
         <v>-2.8958699999999999</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="A44" s="13">
         <v>34303</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="16">
         <v>-1.72306</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="A45" s="13">
         <v>34334</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="16">
         <v>1.0266</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="A46" s="13">
         <v>34365</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="16">
         <v>5.3781400000000001</v>
       </c>
     </row>
@@ -849,7 +849,7 @@
       <c r="A47" s="13">
         <v>34393</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="16">
         <v>9.4142700000000001</v>
       </c>
     </row>
@@ -857,7 +857,7 @@
       <c r="A48" s="13">
         <v>34424</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="16">
         <v>9.5267700000000008</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="A49" s="13">
         <v>34454</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="16">
         <v>15.114839999999999</v>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="A50" s="13">
         <v>34485</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="16">
         <v>14.012259999999999</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="A51" s="13">
         <v>34515</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="16">
         <v>12.262840000000001</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="A52" s="13">
         <v>34546</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="16">
         <v>13.49145</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
       <c r="A53" s="13">
         <v>34577</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="16">
         <v>12.099819999999999</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="A54" s="13">
         <v>34607</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="16">
         <v>15.80979</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="A55" s="13">
         <v>34638</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="16">
         <v>16.079249999999998</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="A56" s="13">
         <v>34668</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="16">
         <v>17.943470000000001</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="A57" s="13">
         <v>34699</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="16">
         <v>21.672049999999999</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="A58" s="13">
         <v>34730</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="16">
         <v>13.68</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="A59" s="13">
         <v>34758</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="16">
         <v>12.18126</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="A60" s="13">
         <v>34789</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="16">
         <v>8.7643699999999995</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
       <c r="A61" s="13">
         <v>34819</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="16">
         <v>3.6702400000000002</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="A62" s="13">
         <v>34850</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="16">
         <v>6.3408699999999998</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="A63" s="13">
         <v>34880</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="16">
         <v>6.8758400000000002</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="A64" s="13">
         <v>34911</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="16">
         <v>6.6124099999999997</v>
       </c>
     </row>
@@ -993,7 +993,7 @@
       <c r="A65" s="13">
         <v>34942</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="16">
         <v>8.1157299999999992</v>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="A66" s="13">
         <v>34972</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="16">
         <v>6.5145</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="A67" s="13">
         <v>35003</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="16">
         <v>6.1487800000000004</v>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       <c r="A68" s="13">
         <v>35033</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="16">
         <v>4.4324300000000001</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="A69" s="13">
         <v>35064</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="16">
         <v>7.3582299999999998</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="A70" s="13">
         <v>35095</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="16">
         <v>3.3155800000000002</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="A71" s="13">
         <v>35124</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="16">
         <v>2.9659800000000001</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       <c r="A72" s="13">
         <v>35155</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="16">
         <v>2.9132600000000002</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="A73" s="13">
         <v>35185</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="16">
         <v>3.2671399999999999</v>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="A74" s="13">
         <v>35216</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="16">
         <v>5.8281299999999998</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       <c r="A75" s="13">
         <v>35246</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="16">
         <v>5.2085699999999999</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       <c r="A76" s="13">
         <v>35277</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="16">
         <v>6.4353400000000001</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="A77" s="13">
         <v>35308</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="16">
         <v>6.9107799999999999</v>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="A78" s="13">
         <v>35338</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="16">
         <v>9.3361199999999993</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="A79" s="13">
         <v>35369</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="16">
         <v>9.1306700000000003</v>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="A80" s="13">
         <v>35399</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="16">
         <v>12.20557</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       <c r="A81" s="13">
         <v>35430</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="16">
         <v>11.148770000000001</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       <c r="A82" s="13">
         <v>35461</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="16">
         <v>15.29426</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       <c r="A83" s="13">
         <v>35489</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="16">
         <v>14.03853</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="A84" s="13">
         <v>35520</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="16">
         <v>14.00562</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="A85" s="13">
         <v>35550</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="16">
         <v>13.668900000000001</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="A86" s="13">
         <v>35581</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="16">
         <v>10.01291</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="A87" s="13">
         <v>35611</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="16">
         <v>13.15395</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="A88" s="13">
         <v>35642</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="16">
         <v>14.087999999999999</v>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="A89" s="13">
         <v>35673</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="16">
         <v>14.75447</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       <c r="A90" s="13">
         <v>35703</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="16">
         <v>18.25226</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="A91" s="13">
         <v>35734</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="16">
         <v>15.32423</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="A92" s="13">
         <v>35764</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="16">
         <v>13.28041</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="A93" s="13">
         <v>35795</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="16">
         <v>13.206619999999999</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       <c r="A94" s="13">
         <v>35826</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="16">
         <v>13.148210000000001</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="A95" s="13">
         <v>35854</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="16">
         <v>13.05757</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="A96" s="13">
         <v>35885</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="16">
         <v>13.944050000000001</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="A97" s="13">
         <v>35915</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="16">
         <v>15.937709999999999</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       <c r="A98" s="13">
         <v>35946</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="16">
         <v>10.27225</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="A99" s="13">
         <v>35976</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="16">
         <v>8.9459599999999995</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="A100" s="13">
         <v>36007</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="16">
         <v>6.7551600000000001</v>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       <c r="A101" s="13">
         <v>36038</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="16">
         <v>3.4949699999999999</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="A102" s="13">
         <v>36068</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="16">
         <v>0.13055</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="A103" s="13">
         <v>36099</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="16">
         <v>-3.5844800000000001</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="A104" s="13">
         <v>36129</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="16">
         <v>-0.11362</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       <c r="A105" s="13">
         <v>36160</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="16">
         <v>-1.64062</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="A106" s="13">
         <v>36191</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="16">
         <v>-3.8708300000000002</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       <c r="A107" s="13">
         <v>36219</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="16">
         <v>-7.0225799999999996</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       <c r="A108" s="13">
         <v>36250</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="16">
         <v>-1.0467900000000001</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="A109" s="13">
         <v>36280</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="16">
         <v>-2.2172200000000002</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="A110" s="13">
         <v>36311</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="16">
         <v>0.18548999999999999</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="A111" s="13">
         <v>36341</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="16">
         <v>5.7529599999999999</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="A112" s="13">
         <v>36372</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="16">
         <v>4.5753899999999996</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       <c r="A113" s="13">
         <v>36403</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="16">
         <v>6.5923999999999996</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="A114" s="13">
         <v>36433</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="16">
         <v>6.9907000000000004</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       <c r="A115" s="13">
         <v>36464</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="16">
         <v>9.5394299999999994</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="A116" s="13">
         <v>36494</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="16">
         <v>10.47317</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="A117" s="13">
         <v>36525</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="16">
         <v>11.412979999999999</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="A118" s="13">
         <v>36556</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="16">
         <v>12.03031</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="A119" s="13">
         <v>36585</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="16">
         <v>11.76634</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="A120" s="13">
         <v>36616</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="16">
         <v>10.091810000000001</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="A121" s="13">
         <v>36646</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="16">
         <v>13.57325</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="A122" s="13">
         <v>36677</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="16">
         <v>13.059100000000001</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="A123" s="13">
         <v>36707</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="16">
         <v>14.74954</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="A124" s="13">
         <v>36738</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="16">
         <v>13.685269999999999</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="A125" s="13">
         <v>36769</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="16">
         <v>14.71672</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="A126" s="13">
         <v>36799</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="16">
         <v>15.63585</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="A127" s="13">
         <v>36830</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="16">
         <v>13.418699999999999</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="A128" s="13">
         <v>36860</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="16">
         <v>13.01802</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="A129" s="13">
         <v>36891</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="16">
         <v>11.35093</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="A130" s="13">
         <v>36922</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="16">
         <v>12.16108</v>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="A131" s="13">
         <v>36950</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="16">
         <v>9.7060200000000005</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="A132" s="13">
         <v>36981</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="16">
         <v>6.2969999999999997</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="A133" s="13">
         <v>37011</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="16">
         <v>3.15985</v>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       <c r="A134" s="13">
         <v>37042</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="16">
         <v>0.71397999999999995</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       <c r="A135" s="13">
         <v>37072</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="16">
         <v>-1.07507</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       <c r="A136" s="13">
         <v>37103</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="16">
         <v>-0.92818000000000001</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="A137" s="13">
         <v>37134</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="16">
         <v>1.8808800000000001</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       <c r="A138" s="13">
         <v>37164</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="16">
         <v>-4.9267300000000001</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       <c r="A139" s="13">
         <v>37195</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="16">
         <v>-9.7597199999999997</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       <c r="A140" s="13">
         <v>37225</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="16">
         <v>-5.6373100000000003</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       <c r="A141" s="13">
         <v>37256</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="16">
         <v>-2.5463900000000002</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       <c r="A142" s="13">
         <v>37287</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="16">
         <v>-5.5642399999999999</v>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="A143" s="13">
         <v>37315</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="16">
         <v>0.56642000000000003</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="A144" s="13">
         <v>37346</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="16">
         <v>3.3382100000000001</v>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       <c r="A145" s="13">
         <v>37376</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="16">
         <v>8.6800999999999995</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="A146" s="13">
         <v>37407</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="16">
         <v>8.4129900000000006</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       <c r="A147" s="13">
         <v>37437</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="16">
         <v>8.3763000000000005</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="A148" s="13">
         <v>37468</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="16">
         <v>8.5719200000000004</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="A149" s="13">
         <v>37499</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="16">
         <v>6.98142</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="A150" s="13">
         <v>37529</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="16">
         <v>6.4111799999999999</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       <c r="A151" s="13">
         <v>37560</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="16">
         <v>6.9171800000000001</v>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       <c r="A152" s="13">
         <v>37590</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="16">
         <v>5.5695899999999998</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       <c r="A153" s="13">
         <v>37621</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="16">
         <v>6.6804300000000003</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="A154" s="13">
         <v>37652</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="16">
         <v>7.03179</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       <c r="A155" s="13">
         <v>37680</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="16">
         <v>4.6189099999999996</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="A156" s="13">
         <v>37711</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="16">
         <v>2.0972300000000001</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="A157" s="13">
         <v>37741</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="16">
         <v>2.0723600000000002</v>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       <c r="A158" s="13">
         <v>37772</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="16">
         <v>2.11374</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="A159" s="13">
         <v>37802</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="16">
         <v>2.6418200000000001</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="A160" s="13">
         <v>37833</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="16">
         <v>2.1001300000000001</v>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="A161" s="13">
         <v>37864</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="16">
         <v>4.0205700000000002</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="A162" s="13">
         <v>37894</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="16">
         <v>7.9742600000000001</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="A163" s="13">
         <v>37925</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="16">
         <v>12.672499999999999</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       <c r="A164" s="13">
         <v>37955</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="16">
         <v>12.53673</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="A165" s="13">
         <v>37986</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="16">
         <v>10.93488</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       <c r="A166" s="13">
         <v>38017</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="16">
         <v>10.64653</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="A167" s="13">
         <v>38046</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="16">
         <v>11.87815</v>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="A168" s="13">
         <v>38077</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="16">
         <v>13.863519999999999</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       <c r="A169" s="13">
         <v>38107</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="16">
         <v>14.714700000000001</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="A170" s="13">
         <v>38138</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="16">
         <v>15.79266</v>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       <c r="A171" s="13">
         <v>38168</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="16">
         <v>15.58723</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       <c r="A172" s="13">
         <v>38199</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="16">
         <v>17.469190000000001</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       <c r="A173" s="13">
         <v>38230</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="16">
         <v>19.008120000000002</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="A174" s="13">
         <v>38260</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="16">
         <v>17.503540000000001</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       <c r="A175" s="13">
         <v>38291</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="16">
         <v>17.508430000000001</v>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="A176" s="13">
         <v>38321</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="16">
         <v>15.36665</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="A177" s="13">
         <v>38352</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="16">
         <v>15.34545</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="A178" s="13">
         <v>38383</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="16">
         <v>13.279249999999999</v>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       <c r="A179" s="13">
         <v>38411</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="16">
         <v>16.566759999999999</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="A180" s="13">
         <v>38442</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="16">
         <v>15.7225</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="A181" s="13">
         <v>38472</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="16">
         <v>16.616479999999999</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="A182" s="13">
         <v>38503</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="16">
         <v>11.41935</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="A183" s="13">
         <v>38533</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="16">
         <v>13.07438</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       <c r="A184" s="13">
         <v>38564</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="16">
         <v>14.29203</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="A185" s="13">
         <v>38595</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="16">
         <v>14.812290000000001</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="A186" s="13">
         <v>38625</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="16">
         <v>16.105609999999999</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="A187" s="13">
         <v>38656</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="16">
         <v>16.265840000000001</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="A188" s="13">
         <v>38686</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="16">
         <v>17.514759999999999</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="A189" s="13">
         <v>38717</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="16">
         <v>18.965610000000002</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="A190" s="13">
         <v>38748</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="16">
         <v>23.946729999999999</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="A191" s="13">
         <v>38776</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="16">
         <v>22.435559999999999</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="A192" s="13">
         <v>38807</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="16">
         <v>22.789280000000002</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       <c r="A193" s="13">
         <v>38837</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="16">
         <v>21.77881</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="A194" s="13">
         <v>38868</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="16">
         <v>18.846489999999999</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="A195" s="13">
         <v>38898</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="16">
         <v>20.34404</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="A196" s="13">
         <v>38929</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="16">
         <v>17.491240000000001</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       <c r="A197" s="13">
         <v>38960</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="16">
         <v>14.687329999999999</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="A198" s="13">
         <v>38990</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="16">
         <v>18.719639999999998</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="A199" s="13">
         <v>39021</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="16">
         <v>20.11251</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="A200" s="13">
         <v>39051</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="16">
         <v>22.943960000000001</v>
       </c>
     </row>
@@ -2081,15 +2081,15 @@
       <c r="A201" s="13">
         <v>39082</v>
       </c>
-      <c r="B201" s="9">
-        <v>22.79045</v>
+      <c r="B201" s="16">
+        <v>22.790459999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
         <v>39113</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="16">
         <v>22.538779999999999</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="A203" s="13">
         <v>39141</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="16">
         <v>20.22739</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="A204" s="13">
         <v>39172</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="16">
         <v>19.9039</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="A205" s="13">
         <v>39202</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="16">
         <v>19.921589999999998</v>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       <c r="A206" s="13">
         <v>39233</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="16">
         <v>21.136140000000001</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       <c r="A207" s="13">
         <v>39263</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="16">
         <v>20.374130000000001</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       <c r="A208" s="13">
         <v>39294</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="16">
         <v>18.532409999999999</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="A209" s="13">
         <v>39325</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="16">
         <v>18.707630000000002</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="A210" s="13">
         <v>39355</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="16">
         <v>19.669650000000001</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="A211" s="13">
         <v>39386</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="16">
         <v>18.04927</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       <c r="A212" s="13">
         <v>39416</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="16">
         <v>19.71781</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       <c r="A213" s="13">
         <v>39447</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="16">
         <v>19.564520000000002</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       <c r="A214" s="13">
         <v>39478</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="16">
         <v>19.752929999999999</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="A215" s="13">
         <v>39507</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="16">
         <v>17.64912</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       <c r="A216" s="13">
         <v>39538</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="16">
         <v>18.08465</v>
       </c>
     </row>
@@ -2209,15 +2209,15 @@
       <c r="A217" s="13">
         <v>39568</v>
       </c>
-      <c r="B217" s="9">
-        <v>14.89767</v>
+      <c r="B217" s="16">
+        <v>14.89766</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="13">
         <v>39599</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="16">
         <v>13.25849</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="A219" s="13">
         <v>39629</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="16">
         <v>10.48502</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="A220" s="13">
         <v>39660</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="16">
         <v>7.92042</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="A221" s="13">
         <v>39691</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="16">
         <v>5.0385499999999999</v>
       </c>
     </row>
@@ -2249,15 +2249,15 @@
       <c r="A222" s="13">
         <v>39721</v>
       </c>
-      <c r="B222" s="9">
-        <v>-1.1184099999999999</v>
+      <c r="B222" s="16">
+        <v>-1.1184000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>39752</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="16">
         <v>-10.68688</v>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="A224" s="13">
         <v>39782</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="16">
         <v>-20.444469999999999</v>
       </c>
     </row>
@@ -2273,23 +2273,23 @@
       <c r="A225" s="13">
         <v>39813</v>
       </c>
-      <c r="B225" s="9">
-        <v>-31.87904</v>
+      <c r="B225" s="16">
+        <v>-31.87903</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="13">
         <v>39844</v>
       </c>
-      <c r="B226" s="9">
-        <v>-32.317489999999999</v>
+      <c r="B226" s="16">
+        <v>-32.317480000000003</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="13">
         <v>39872</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="16">
         <v>-31.503779999999999</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       <c r="A228" s="13">
         <v>39903</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="16">
         <v>-34.091270000000002</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       <c r="A229" s="13">
         <v>39933</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B229" s="16">
         <v>-27.53959</v>
       </c>
     </row>
@@ -2313,183 +2313,183 @@
       <c r="A230" s="13">
         <v>39964</v>
       </c>
-      <c r="B230" s="9">
-        <v>-21.528479999999998</v>
+      <c r="B230" s="16">
+        <v>-21.528500000000001</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>39994</v>
       </c>
-      <c r="B231" s="9">
-        <v>-17.034310000000001</v>
+      <c r="B231" s="16">
+        <v>-17.034330000000001</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="13">
         <v>40025</v>
       </c>
-      <c r="B232" s="9">
-        <v>-8.2224599999999999</v>
+      <c r="B232" s="16">
+        <v>-8.2224699999999995</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="13">
         <v>40056</v>
       </c>
-      <c r="B233" s="9">
-        <v>0.57059000000000004</v>
+      <c r="B233" s="16">
+        <v>0.57057999999999998</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="13">
         <v>40086</v>
       </c>
-      <c r="B234" s="9">
-        <v>2.6391</v>
+      <c r="B234" s="16">
+        <v>2.6391399999999998</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="13">
         <v>40117</v>
       </c>
-      <c r="B235" s="9">
-        <v>6.7694900000000002</v>
+      <c r="B235" s="16">
+        <v>6.7694999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="13">
         <v>40147</v>
       </c>
-      <c r="B236" s="9">
-        <v>11.40645</v>
+      <c r="B236" s="16">
+        <v>11.40644</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="13">
         <v>40178</v>
       </c>
-      <c r="B237" s="9">
-        <v>12.28557</v>
+      <c r="B237" s="16">
+        <v>12.285589999999999</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="13">
         <v>40209</v>
       </c>
-      <c r="B238" s="9">
-        <v>15.321149999999999</v>
+      <c r="B238" s="16">
+        <v>15.321160000000001</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="13">
         <v>40237</v>
       </c>
-      <c r="B239" s="9">
-        <v>18.806640000000002</v>
+      <c r="B239" s="16">
+        <v>18.80667</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="13">
         <v>40268</v>
       </c>
-      <c r="B240" s="9">
-        <v>18.37012</v>
+      <c r="B240" s="16">
+        <v>18.37011</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="13">
         <v>40298</v>
       </c>
-      <c r="B241" s="9">
-        <v>20.59562</v>
+      <c r="B241" s="16">
+        <v>20.595610000000001</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="13">
         <v>40329</v>
       </c>
-      <c r="B242" s="9">
-        <v>20.965219999999999</v>
+      <c r="B242" s="16">
+        <v>20.96509</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="13">
         <v>40359</v>
       </c>
-      <c r="B243" s="9">
-        <v>21.972619999999999</v>
+      <c r="B243" s="16">
+        <v>21.972639999999998</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="13">
         <v>40390</v>
       </c>
-      <c r="B244" s="9">
-        <v>21.220749999999999</v>
+      <c r="B244" s="16">
+        <v>21.220780000000001</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="13">
         <v>40421</v>
       </c>
-      <c r="B245" s="9">
-        <v>22.318940000000001</v>
+      <c r="B245" s="16">
+        <v>22.318960000000001</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="13">
         <v>40451</v>
       </c>
-      <c r="B246" s="9">
-        <v>23.612410000000001</v>
+      <c r="B246" s="16">
+        <v>23.612500000000001</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="13">
         <v>40482</v>
       </c>
-      <c r="B247" s="9">
-        <v>23.658539999999999</v>
+      <c r="B247" s="16">
+        <v>23.658529999999999</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="13">
         <v>40512</v>
       </c>
-      <c r="B248" s="9">
-        <v>22.737970000000001</v>
+      <c r="B248" s="16">
+        <v>22.73798</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="13">
         <v>40543</v>
       </c>
-      <c r="B249" s="9">
-        <v>24.157119999999999</v>
+      <c r="B249" s="16">
+        <v>24.15709</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="13">
         <v>40574</v>
       </c>
-      <c r="B250" s="9">
-        <v>26.576640000000001</v>
+      <c r="B250" s="16">
+        <v>26.576609999999999</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="13">
         <v>40602</v>
       </c>
-      <c r="B251" s="9">
-        <v>24.71632</v>
+      <c r="B251" s="16">
+        <v>24.716370000000001</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="13">
         <v>40633</v>
       </c>
-      <c r="B252" s="9">
+      <c r="B252" s="16">
         <v>22.665520000000001</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="A253" s="13">
         <v>40663</v>
       </c>
-      <c r="B253" s="9">
+      <c r="B253" s="16">
         <v>20.59723</v>
       </c>
     </row>
@@ -2505,47 +2505,47 @@
       <c r="A254" s="13">
         <v>40694</v>
       </c>
-      <c r="B254" s="9">
-        <v>18.821739999999998</v>
+      <c r="B254" s="16">
+        <v>18.8215</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="13">
         <v>40724</v>
       </c>
-      <c r="B255" s="9">
-        <v>17.159310000000001</v>
+      <c r="B255" s="16">
+        <v>17.15934</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="13">
         <v>40755</v>
       </c>
-      <c r="B256" s="9">
-        <v>13.158060000000001</v>
+      <c r="B256" s="16">
+        <v>13.15813</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="13">
         <v>40786</v>
       </c>
-      <c r="B257" s="9">
-        <v>12.033530000000001</v>
+      <c r="B257" s="16">
+        <v>12.033609999999999</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="13">
         <v>40816</v>
       </c>
-      <c r="B258" s="9">
-        <v>7.7858299999999998</v>
+      <c r="B258" s="16">
+        <v>7.78599</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="13">
         <v>40847</v>
       </c>
-      <c r="B259" s="9">
+      <c r="B259" s="16">
         <v>9.64377</v>
       </c>
     </row>
@@ -2553,1007 +2553,1017 @@
       <c r="A260" s="13">
         <v>40877</v>
       </c>
-      <c r="B260" s="9">
-        <v>6.6878700000000002</v>
+      <c r="B260" s="16">
+        <v>6.6879299999999997</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="13">
         <v>40908</v>
       </c>
-      <c r="B261" s="9">
-        <v>9.7429000000000006</v>
+      <c r="B261" s="16">
+        <v>9.7428100000000004</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="13">
         <v>40939</v>
       </c>
-      <c r="B262" s="9">
-        <v>7.5995799999999996</v>
+      <c r="B262" s="16">
+        <v>7.5994799999999998</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="13">
         <v>40968</v>
       </c>
-      <c r="B263" s="9">
-        <v>8.7384599999999999</v>
+      <c r="B263" s="16">
+        <v>8.7384799999999991</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="13">
         <v>40999</v>
       </c>
-      <c r="B264" s="9">
-        <v>8.9742700000000006</v>
+      <c r="B264" s="16">
+        <v>8.9742099999999994</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="13">
         <v>41029</v>
       </c>
-      <c r="B265" s="9">
-        <v>8.8615700000000004</v>
+      <c r="B265" s="16">
+        <v>8.8615100000000009</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="13">
         <v>41060</v>
       </c>
-      <c r="B266" s="9">
-        <v>8.9591100000000008</v>
+      <c r="B266" s="16">
+        <v>8.9586699999999997</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="13">
         <v>41090</v>
       </c>
-      <c r="B267" s="9">
-        <v>5.4319100000000002</v>
+      <c r="B267" s="16">
+        <v>5.4319199999999999</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="13">
         <v>41121</v>
       </c>
-      <c r="B268" s="9">
-        <v>5.2002499999999996</v>
+      <c r="B268" s="16">
+        <v>5.2004099999999998</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="13">
         <v>41152</v>
       </c>
-      <c r="B269" s="9">
-        <v>3.4497300000000002</v>
+      <c r="B269" s="16">
+        <v>3.45</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="13">
         <v>41182</v>
       </c>
-      <c r="B270" s="9">
-        <v>1.66414</v>
+      <c r="B270" s="16">
+        <v>1.6646700000000001</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="13">
         <v>41213</v>
       </c>
-      <c r="B271" s="9">
-        <v>-1.41049</v>
+      <c r="B271" s="16">
+        <v>-1.40994</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="13">
         <v>41243</v>
       </c>
-      <c r="B272" s="9">
-        <v>5.2679</v>
+      <c r="B272" s="16">
+        <v>5.2686799999999998</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="13">
         <v>41274</v>
       </c>
-      <c r="B273" s="9">
-        <v>6.1600400000000004</v>
+      <c r="B273" s="16">
+        <v>6.1573799999999999</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="13">
         <v>41305</v>
       </c>
-      <c r="B274" s="9">
-        <v>6.8696400000000004</v>
+      <c r="B274" s="16">
+        <v>6.8700700000000001</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="13">
         <v>41333</v>
       </c>
-      <c r="B275" s="9">
-        <v>11.16474</v>
+      <c r="B275" s="16">
+        <v>11.16507</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="13">
         <v>41364</v>
       </c>
-      <c r="B276" s="9">
-        <v>8.5323700000000002</v>
+      <c r="B276" s="16">
+        <v>8.53247</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="13">
         <v>41394</v>
       </c>
-      <c r="B277" s="9">
-        <v>9.6131399999999996</v>
+      <c r="B277" s="16">
+        <v>9.6132100000000005</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="13">
         <v>41425</v>
       </c>
-      <c r="B278" s="9">
-        <v>7.1979800000000003</v>
+      <c r="B278" s="16">
+        <v>7.1977399999999996</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="13">
         <v>41455</v>
       </c>
-      <c r="B279" s="9">
-        <v>9.6131899999999995</v>
+      <c r="B279" s="16">
+        <v>9.6121599999999994</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="13">
         <v>41486</v>
       </c>
-      <c r="B280" s="9">
-        <v>11.82953</v>
+      <c r="B280" s="16">
+        <v>11.82991</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="13">
         <v>41517</v>
       </c>
-      <c r="B281" s="9">
-        <v>13.566549999999999</v>
+      <c r="B281" s="16">
+        <v>13.567</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="13">
         <v>41547</v>
       </c>
-      <c r="B282" s="9">
-        <v>16.156369999999999</v>
+      <c r="B282" s="16">
+        <v>16.156960000000002</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="13">
         <v>41578</v>
       </c>
-      <c r="B283" s="9">
-        <v>15.067349999999999</v>
+      <c r="B283" s="16">
+        <v>15.068989999999999</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="13">
         <v>41608</v>
       </c>
-      <c r="B284" s="9">
-        <v>18.797989999999999</v>
+      <c r="B284" s="16">
+        <v>18.799510000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="13">
         <v>41639</v>
       </c>
-      <c r="B285" s="9">
-        <v>15.66165</v>
+      <c r="B285" s="16">
+        <v>15.65865</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="13">
         <v>41670</v>
       </c>
-      <c r="B286" s="9">
-        <v>16.553170000000001</v>
+      <c r="B286" s="16">
+        <v>16.553190000000001</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="13">
         <v>41698</v>
       </c>
-      <c r="B287" s="9">
-        <v>15.070259999999999</v>
+      <c r="B287" s="16">
+        <v>15.06973</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="13">
         <v>41729</v>
       </c>
-      <c r="B288" s="9">
-        <v>12.35694</v>
+      <c r="B288" s="16">
+        <v>12.35582</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="13">
         <v>41759</v>
       </c>
-      <c r="B289" s="9">
-        <v>11.836360000000001</v>
+      <c r="B289" s="16">
+        <v>11.83503</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="13">
         <v>41790</v>
       </c>
-      <c r="B290" s="9">
-        <v>11.547470000000001</v>
+      <c r="B290" s="16">
+        <v>11.54613</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="13">
         <v>41820</v>
       </c>
-      <c r="B291" s="9">
-        <v>10.801299999999999</v>
+      <c r="B291" s="16">
+        <v>10.798730000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="13">
         <v>41851</v>
       </c>
-      <c r="B292" s="9">
-        <v>8.9766499999999994</v>
+      <c r="B292" s="16">
+        <v>8.9830400000000008</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="13">
         <v>41882</v>
       </c>
-      <c r="B293" s="9">
-        <v>8.4965899999999994</v>
+      <c r="B293" s="16">
+        <v>8.4995499999999993</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="13">
         <v>41912</v>
       </c>
-      <c r="B294" s="9">
-        <v>6.1422999999999996</v>
+      <c r="B294" s="16">
+        <v>6.1453499999999996</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="13">
         <v>41943</v>
       </c>
-      <c r="B295" s="9">
-        <v>7.1335100000000002</v>
+      <c r="B295" s="16">
+        <v>7.1371000000000002</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="13">
         <v>41973</v>
       </c>
-      <c r="B296" s="9">
-        <v>6.1168899999999997</v>
+      <c r="B296" s="16">
+        <v>6.1173500000000001</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="13">
         <v>42004</v>
       </c>
-      <c r="B297" s="9">
-        <v>7.2185499999999996</v>
+      <c r="B297" s="16">
+        <v>7.2113199999999997</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="13">
         <v>42035</v>
       </c>
-      <c r="B298" s="9">
-        <v>8.5275099999999995</v>
+      <c r="B298" s="16">
+        <v>8.5227199999999996</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="13">
         <v>42036</v>
       </c>
-      <c r="B299" s="9">
-        <v>10.22747</v>
+      <c r="B299" s="16">
+        <v>10.2227</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="13">
         <v>42064</v>
       </c>
-      <c r="B300" s="9">
-        <v>11.7104</v>
+      <c r="B300" s="16">
+        <v>11.7066</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="13">
         <v>42095</v>
       </c>
-      <c r="B301" s="9">
-        <v>11.427390000000001</v>
+      <c r="B301" s="16">
+        <v>11.42534</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="13">
         <v>42125</v>
       </c>
-      <c r="B302" s="9">
-        <v>10.902659999999999</v>
+      <c r="B302" s="16">
+        <v>10.90273</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="13">
         <v>42156</v>
       </c>
-      <c r="B303" s="9">
-        <v>10.960660000000001</v>
+      <c r="B303" s="16">
+        <v>10.95987</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="13">
         <v>42186</v>
       </c>
-      <c r="B304" s="9">
-        <v>9.90306</v>
+      <c r="B304" s="16">
+        <v>9.9198000000000004</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="13">
         <v>42217</v>
       </c>
-      <c r="B305" s="9">
-        <v>11.29795</v>
+      <c r="B305" s="16">
+        <v>11.308299999999999</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="13">
         <v>42248</v>
       </c>
-      <c r="B306" s="9">
-        <v>9.7860499999999995</v>
+      <c r="B306" s="16">
+        <v>9.7955000000000005</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="13">
         <v>42278</v>
       </c>
-      <c r="B307" s="9">
-        <v>7.74498</v>
+      <c r="B307" s="16">
+        <v>7.7511599999999996</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="13">
         <v>42309</v>
       </c>
-      <c r="B308" s="9">
-        <v>7.5702100000000003</v>
+      <c r="B308" s="16">
+        <v>7.5654300000000001</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="13">
         <v>42339</v>
       </c>
-      <c r="B309" s="9">
-        <v>9.7890300000000003</v>
+      <c r="B309" s="16">
+        <v>9.7731999999999992</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="13">
         <v>42370</v>
       </c>
-      <c r="B310" s="9">
-        <v>6.6713899999999997</v>
+      <c r="B310" s="16">
+        <v>6.6536200000000001</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="13">
         <v>42401</v>
       </c>
-      <c r="B311" s="9">
-        <v>5.3480299999999996</v>
+      <c r="B311" s="16">
+        <v>5.33345</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="13">
         <v>42430</v>
       </c>
-      <c r="B312" s="9">
-        <v>6.3600099999999999</v>
+      <c r="B312" s="16">
+        <v>6.3518299999999996</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="13">
         <v>42461</v>
       </c>
-      <c r="B313" s="9">
-        <v>6.2251000000000003</v>
+      <c r="B313" s="16">
+        <v>6.2226999999999997</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="13">
         <v>42491</v>
       </c>
-      <c r="B314" s="9">
-        <v>7.2420799999999996</v>
+      <c r="B314" s="16">
+        <v>7.2435400000000003</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="13">
         <v>42522</v>
       </c>
-      <c r="B315" s="9">
-        <v>9.1746499999999997</v>
+      <c r="B315" s="16">
+        <v>9.1749799999999997</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="13">
         <v>42552</v>
       </c>
-      <c r="B316" s="9">
-        <v>8.9121100000000002</v>
+      <c r="B316" s="16">
+        <v>8.9406199999999991</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="13">
         <v>42583</v>
       </c>
-      <c r="B317" s="9">
-        <v>9.0361399999999996</v>
+      <c r="B317" s="16">
+        <v>9.0619399999999999</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="13">
         <v>42614</v>
       </c>
-      <c r="B318" s="9">
-        <v>10.495620000000001</v>
+      <c r="B318" s="16">
+        <v>10.525550000000001</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="13">
         <v>42644</v>
       </c>
-      <c r="B319" s="9">
-        <v>13.03096</v>
+      <c r="B319" s="16">
+        <v>13.06166</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="13">
         <v>42675</v>
       </c>
-      <c r="B320" s="9">
-        <v>6.9612499999999997</v>
+      <c r="B320" s="16">
+        <v>6.9824200000000003</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="13">
         <v>42705</v>
       </c>
-      <c r="B321" s="9">
-        <v>9.7855699999999999</v>
+      <c r="B321" s="16">
+        <v>9.78233</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="13">
         <v>42736</v>
       </c>
-      <c r="B322" s="9">
-        <v>12.687279999999999</v>
+      <c r="B322" s="16">
+        <v>12.499739999999999</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="13">
         <v>42767</v>
       </c>
-      <c r="B323" s="9">
-        <v>14.490740000000001</v>
+      <c r="B323" s="16">
+        <v>14.45682</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="13">
         <v>42795</v>
       </c>
-      <c r="B324" s="9">
-        <v>17.646270000000001</v>
+      <c r="B324" s="16">
+        <v>17.652799999999999</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="13">
         <v>42826</v>
       </c>
-      <c r="B325" s="9">
-        <v>18.288530000000002</v>
+      <c r="B325" s="16">
+        <v>18.35699</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="13">
         <v>42856</v>
       </c>
-      <c r="B326" s="9">
-        <v>20.931090000000001</v>
+      <c r="B326" s="16">
+        <v>20.995899999999999</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="13">
         <v>42887</v>
       </c>
-      <c r="B327" s="9">
-        <v>20.44801</v>
+      <c r="B327" s="16">
+        <v>20.358270000000001</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="13">
         <v>42917</v>
       </c>
-      <c r="B328" s="9">
-        <v>23.93572</v>
+      <c r="B328" s="16">
+        <v>23.974450000000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="13">
         <v>42948</v>
       </c>
-      <c r="B329" s="9">
-        <v>19.34524</v>
+      <c r="B329" s="16">
+        <v>19.394490000000001</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="13">
         <v>42979</v>
       </c>
-      <c r="B330" s="9">
-        <v>19.634260000000001</v>
+      <c r="B330" s="16">
+        <v>19.698499999999999</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="13">
         <v>43009</v>
       </c>
-      <c r="B331" s="9">
-        <v>20.989570000000001</v>
+      <c r="B331" s="16">
+        <v>21.057670000000002</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="13">
         <v>43040</v>
       </c>
-      <c r="B332" s="9">
-        <v>20.790420000000001</v>
+      <c r="B332" s="16">
+        <v>20.845970000000001</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="13">
         <v>43070</v>
       </c>
-      <c r="B333" s="9">
-        <v>20.073910000000001</v>
+      <c r="B333" s="16">
+        <v>20.084759999999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="13">
         <v>43101</v>
       </c>
-      <c r="B334" s="9">
-        <v>19.890280000000001</v>
+      <c r="B334" s="16">
+        <v>19.52216</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="13">
         <v>43132</v>
       </c>
-      <c r="B335" s="9">
-        <v>18.69659</v>
+      <c r="B335" s="16">
+        <v>18.630949999999999</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="13">
         <v>43160</v>
       </c>
-      <c r="B336" s="9">
-        <v>18.693300000000001</v>
+      <c r="B336" s="16">
+        <v>18.704920000000001</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="13">
         <v>43191</v>
       </c>
-      <c r="B337" s="9">
-        <v>18.20232</v>
+      <c r="B337" s="16">
+        <v>18.33323</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="13">
         <v>43221</v>
       </c>
-      <c r="B338" s="9">
-        <v>15.888249999999999</v>
+      <c r="B338" s="16">
+        <v>16.004919999999998</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="13">
         <v>43252</v>
       </c>
-      <c r="B339" s="9">
-        <v>13.6303</v>
+      <c r="B339" s="16">
+        <v>13.43754</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="13">
         <v>43282</v>
       </c>
-      <c r="B340" s="9">
-        <v>13.889049999999999</v>
+      <c r="B340" s="16">
+        <v>13.93018</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="13">
         <v>43313</v>
       </c>
-      <c r="B341" s="9">
-        <v>12.78134</v>
+      <c r="B341" s="16">
+        <v>12.867100000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="13">
         <v>43344</v>
       </c>
-      <c r="B342" s="9">
-        <v>12.41967</v>
+      <c r="B342" s="16">
+        <v>12.561820000000001</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="13">
         <v>43374</v>
       </c>
-      <c r="B343" s="9">
-        <v>10.149570000000001</v>
+      <c r="B343" s="16">
+        <v>10.306469999999999</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="13">
         <v>43405</v>
       </c>
-      <c r="B344" s="9">
-        <v>10.63721</v>
+      <c r="B344" s="16">
+        <v>10.76155</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="13">
         <v>43435</v>
       </c>
-      <c r="B345" s="9">
-        <v>7.6066700000000003</v>
+      <c r="B345" s="16">
+        <v>7.6253200000000003</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="13">
         <v>43466</v>
       </c>
-      <c r="B346" s="9">
-        <v>5.7900400000000003</v>
+      <c r="B346" s="16">
+        <v>5.1522300000000003</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="13">
         <v>43497</v>
       </c>
-      <c r="B347" s="9">
-        <v>7.8301499999999997</v>
+      <c r="B347" s="16">
+        <v>7.4989999999999997</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="13">
         <v>43525</v>
       </c>
-      <c r="B348" s="9">
-        <v>4.9318499999999998</v>
+      <c r="B348" s="16">
+        <v>4.7786200000000001</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="13">
         <v>43556</v>
       </c>
-      <c r="B349" s="9">
-        <v>3.9926499999999998</v>
+      <c r="B349" s="16">
+        <v>4.6395</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="13">
         <v>43586</v>
       </c>
-      <c r="B350" s="9">
-        <v>5.0433300000000001</v>
+      <c r="B350" s="16">
+        <v>5.3292700000000002</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="13">
         <v>43617</v>
       </c>
-      <c r="B351" s="9">
-        <v>0.72862000000000005</v>
+      <c r="B351" s="16">
+        <v>0.39052999999999999</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="13">
         <v>43647</v>
       </c>
-      <c r="B352" s="9">
-        <v>-3.1642800000000002</v>
+      <c r="B352" s="16">
+        <v>-3.1456599999999999</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="13">
         <v>43678</v>
       </c>
-      <c r="B353" s="9">
-        <v>-3.97845</v>
+      <c r="B353" s="16">
+        <v>-3.8847299999999998</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="13">
         <v>43709</v>
       </c>
-      <c r="B354" s="9">
-        <v>-9.1576599999999999</v>
+      <c r="B354" s="16">
+        <v>-8.9762299999999993</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="13">
         <v>43739</v>
       </c>
-      <c r="B355" s="9">
-        <v>-3.5125600000000001</v>
+      <c r="B355" s="16">
+        <v>-3.29853</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="13">
         <v>43770</v>
       </c>
-      <c r="B356" s="9">
-        <v>-2.1647799999999999</v>
+      <c r="B356" s="16">
+        <v>-1.99366</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="13">
         <v>43800</v>
       </c>
-      <c r="B357" s="9">
-        <v>0.73740000000000006</v>
+      <c r="B357" s="16">
+        <v>0.73926999999999998</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="13">
         <v>43831</v>
       </c>
-      <c r="B358" s="9">
-        <v>0.89886999999999995</v>
+      <c r="B358" s="16">
+        <v>7.8609999999999999E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="13">
         <v>43862</v>
       </c>
-      <c r="B359" s="9">
-        <v>-0.11808</v>
+      <c r="B359" s="16">
+        <v>-0.77398999999999996</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="13">
         <v>43891</v>
       </c>
-      <c r="B360" s="9">
-        <v>-17.35257</v>
+      <c r="B360" s="16">
+        <v>-17.734010000000001</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="13">
         <v>43922</v>
       </c>
-      <c r="B361" s="9">
-        <v>-48.589869999999998</v>
+      <c r="B361" s="16">
+        <v>-47.340530000000001</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="13">
         <v>43952</v>
       </c>
-      <c r="B362" s="9">
-        <v>-24.184850000000001</v>
+      <c r="B362" s="16">
+        <v>-23.72785</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="13">
         <v>43983</v>
       </c>
-      <c r="B363" s="9">
-        <v>-2.35562</v>
+      <c r="B363" s="16">
+        <v>-2.7853699999999999</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="13">
         <v>44013</v>
       </c>
-      <c r="B364" s="9">
-        <v>6.82036</v>
+      <c r="B364" s="16">
+        <v>6.7996100000000004</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="13">
         <v>44044</v>
       </c>
-      <c r="B365" s="9">
-        <v>4.6294500000000003</v>
+      <c r="B365" s="16">
+        <v>4.7134400000000003</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="13">
         <v>44075</v>
       </c>
-      <c r="B366" s="9">
-        <v>6.7730399999999999</v>
+      <c r="B366" s="16">
+        <v>6.9774000000000003</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="13">
         <v>44105</v>
       </c>
-      <c r="B367" s="9">
-        <v>6.2453000000000003</v>
+      <c r="B367" s="16">
+        <v>6.5121099999999998</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="13">
         <v>44136</v>
       </c>
-      <c r="B368" s="9">
-        <v>-8.6010000000000003E-2</v>
+      <c r="B368" s="16">
+        <v>0.13138</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="13">
         <v>44166</v>
       </c>
-      <c r="B369" s="9">
-        <v>3.7627299999999999</v>
+      <c r="B369" s="16">
+        <v>3.7347800000000002</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="13">
         <v>44197</v>
       </c>
-      <c r="B370" s="9">
-        <v>7.7352800000000004</v>
+      <c r="B370" s="16">
+        <v>6.6622399999999997</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="13">
         <v>44228</v>
       </c>
-      <c r="B371" s="9">
-        <v>12.90602</v>
+      <c r="B371" s="16">
+        <v>11.855230000000001</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="13">
         <v>44256</v>
       </c>
-      <c r="B372" s="9">
-        <v>24.39274</v>
+      <c r="B372" s="16">
+        <v>23.731449999999999</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="13">
         <v>44287</v>
       </c>
-      <c r="B373" s="9">
-        <v>23.678129999999999</v>
+      <c r="B373" s="16">
+        <v>25.661300000000001</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="13">
         <v>44317</v>
       </c>
-      <c r="B374" s="9">
-        <v>22.201319999999999</v>
+      <c r="B374" s="16">
+        <v>23.095510000000001</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="13">
         <v>44348</v>
       </c>
-      <c r="B375" s="9">
-        <v>24.53884</v>
+      <c r="B375" s="16">
+        <v>24.00179</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="13">
         <v>44378</v>
       </c>
-      <c r="B376" s="9">
-        <v>22.88044</v>
+      <c r="B376" s="16">
+        <v>22.79682</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="13">
         <v>44409</v>
       </c>
-      <c r="B377" s="9">
-        <v>16.240970000000001</v>
+      <c r="B377" s="16">
+        <v>16.265709999999999</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="13">
         <v>44440</v>
       </c>
-      <c r="B378" s="9">
-        <v>20.237380000000002</v>
+      <c r="B378" s="16">
+        <v>20.381769999999999</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="13">
         <v>44470</v>
       </c>
-      <c r="B379" s="9">
-        <v>13.085940000000001</v>
+      <c r="B379" s="16">
+        <v>13.30625</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="13">
         <v>44501</v>
       </c>
-      <c r="B380" s="9">
-        <v>16.11158</v>
+      <c r="B380" s="16">
+        <v>16.305789999999998</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="13">
         <v>44531</v>
       </c>
-      <c r="B381" s="9">
-        <v>12.79851</v>
+      <c r="B381" s="16">
+        <v>12.74113</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="13">
         <v>44562</v>
       </c>
-      <c r="B382" s="9">
-        <v>16.730869999999999</v>
+      <c r="B382" s="16">
+        <v>15.48793</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="13">
         <v>44593</v>
       </c>
-      <c r="B383" s="9">
-        <v>17.029810000000001</v>
+      <c r="B383" s="16">
+        <v>15.8096</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="13">
         <v>44621</v>
       </c>
-      <c r="B384" s="9">
-        <v>-2.3260999999999998</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B385" s="16"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="16"/>
+      <c r="B384" s="16">
+        <v>-3.1085199999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="13">
+        <v>44652</v>
+      </c>
+      <c r="B385" s="16">
+        <v>3.0457399999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="13">
+        <v>44682</v>
+      </c>
+      <c r="B386" s="16">
+        <v>4.4971399999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/INTLINE/data/134/IFO/ifo Export Expectations.xlsx
+++ b/INTLINE/data/134/IFO/ifo Export Expectations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs2012\Graph-WA$\Presse\Exporterwartungen\2022\05 Mai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs2012\Graph-WA$\Presse\Exporterwartungen\2022\06 Juni\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="11760"/>
+    <workbookView xWindow="9588" yWindow="-12" windowWidth="9636" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ifo Export Expectations" sheetId="1" r:id="rId1"/>
@@ -478,22 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J380" sqref="J380"/>
+      <pane ySplit="9" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="14.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="6"/>
+    <col min="5" max="5" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -502,54 +502,54 @@
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>33269</v>
       </c>
@@ -557,7 +557,7 @@
         <v>-11.788069999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>33297</v>
       </c>
@@ -565,7 +565,7 @@
         <v>-5.9468899999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>33328</v>
       </c>
@@ -573,7 +573,7 @@
         <v>-8.0904900000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>33358</v>
       </c>
@@ -581,7 +581,7 @@
         <v>-4.9242600000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>33389</v>
       </c>
@@ -589,7 +589,7 @@
         <v>-4.78301</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>33419</v>
       </c>
@@ -597,7 +597,7 @@
         <v>-3.19577</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>33450</v>
       </c>
@@ -605,7 +605,7 @@
         <v>-0.43985999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>33481</v>
       </c>
@@ -613,7 +613,7 @@
         <v>-0.88639000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>33511</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1.5407599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>33542</v>
       </c>
@@ -629,7 +629,7 @@
         <v>3.0583</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>33572</v>
       </c>
@@ -637,7 +637,7 @@
         <v>3.8321399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>33603</v>
       </c>
@@ -645,7 +645,7 @@
         <v>1.78352</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>33634</v>
       </c>
@@ -653,7 +653,7 @@
         <v>-0.12436999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>33663</v>
       </c>
@@ -661,7 +661,7 @@
         <v>-2.2047699999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>33694</v>
       </c>
@@ -669,7 +669,7 @@
         <v>6.3460000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>33724</v>
       </c>
@@ -677,7 +677,7 @@
         <v>-0.84009</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>33755</v>
       </c>
@@ -685,7 +685,7 @@
         <v>0.34954000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>33785</v>
       </c>
@@ -693,7 +693,7 @@
         <v>3.1126100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>33816</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.77512000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>33847</v>
       </c>
@@ -709,7 +709,7 @@
         <v>-5.81419</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>33877</v>
       </c>
@@ -717,7 +717,7 @@
         <v>-10.562939999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>33908</v>
       </c>
@@ -725,7 +725,7 @@
         <v>-16.961369999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>33938</v>
       </c>
@@ -733,7 +733,7 @@
         <v>-17.38542</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>33969</v>
       </c>
@@ -741,7 +741,7 @@
         <v>-14.55438</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>34000</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-10.748379999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34028</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-15.33948</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>34059</v>
       </c>
@@ -765,7 +765,7 @@
         <v>-11.71238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>34089</v>
       </c>
@@ -773,7 +773,7 @@
         <v>-13.464980000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>34120</v>
       </c>
@@ -781,7 +781,7 @@
         <v>-13.464399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>34150</v>
       </c>
@@ -789,7 +789,7 @@
         <v>-9.3676700000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>34181</v>
       </c>
@@ -797,7 +797,7 @@
         <v>-9.8677700000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>34212</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-5.7821100000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>34242</v>
       </c>
@@ -813,7 +813,7 @@
         <v>-4.7997800000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>34273</v>
       </c>
@@ -821,7 +821,7 @@
         <v>-2.8958699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>34303</v>
       </c>
@@ -829,7 +829,7 @@
         <v>-1.72306</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>34334</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1.0266</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>34365</v>
       </c>
@@ -845,7 +845,7 @@
         <v>5.3781400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>34393</v>
       </c>
@@ -853,7 +853,7 @@
         <v>9.4142700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>34424</v>
       </c>
@@ -861,7 +861,7 @@
         <v>9.5267700000000008</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>34454</v>
       </c>
@@ -869,7 +869,7 @@
         <v>15.114839999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>34485</v>
       </c>
@@ -877,7 +877,7 @@
         <v>14.012259999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>34515</v>
       </c>
@@ -885,7 +885,7 @@
         <v>12.262840000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>34546</v>
       </c>
@@ -893,7 +893,7 @@
         <v>13.49145</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>34577</v>
       </c>
@@ -901,7 +901,7 @@
         <v>12.099819999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>34607</v>
       </c>
@@ -909,7 +909,7 @@
         <v>15.80979</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>34638</v>
       </c>
@@ -917,7 +917,7 @@
         <v>16.079249999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>34668</v>
       </c>
@@ -925,7 +925,7 @@
         <v>17.943470000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>34699</v>
       </c>
@@ -933,7 +933,7 @@
         <v>21.672049999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>34730</v>
       </c>
@@ -941,7 +941,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>34758</v>
       </c>
@@ -949,7 +949,7 @@
         <v>12.18126</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>34789</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8.7643699999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>34819</v>
       </c>
@@ -965,7 +965,7 @@
         <v>3.6702400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>34850</v>
       </c>
@@ -973,7 +973,7 @@
         <v>6.3408699999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>34880</v>
       </c>
@@ -981,7 +981,7 @@
         <v>6.8758400000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>34911</v>
       </c>
@@ -989,7 +989,7 @@
         <v>6.6124099999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>34942</v>
       </c>
@@ -997,7 +997,7 @@
         <v>8.1157299999999992</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>34972</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>6.5145</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>35003</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>6.1487800000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>35033</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>4.4324300000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>35064</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>7.3582299999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>35095</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3.3155800000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>35124</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>2.9659800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>35155</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2.9132600000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>35185</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>3.2671399999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>35216</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>5.8281299999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>35246</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5.2085699999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>35277</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>6.4353400000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>35308</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>6.9107799999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>35338</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>9.3361199999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>35369</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>9.1306700000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>35399</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>12.20557</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>35430</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>11.148770000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>35461</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>15.29426</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>35489</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>14.03853</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>35520</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>14.00562</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>35550</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>13.668900000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>35581</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>10.01291</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>35611</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>13.15395</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>35642</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>14.087999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>35673</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>14.75447</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>35703</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>18.25226</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>35734</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>15.32423</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>35764</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>13.28041</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>35795</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>13.206619999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>35826</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>13.148210000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>35854</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>13.05757</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>35885</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>13.944050000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>35915</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>15.937709999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>35946</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>10.27225</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>35976</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>8.9459599999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>36007</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>6.7551600000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>36038</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>3.4949699999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>36068</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.13055</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>36099</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>-3.5844800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>36129</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>-0.11362</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>36160</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>-1.64062</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>36191</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>-3.8708300000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>36219</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>-7.0225799999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>36250</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>-1.0467900000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>36280</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>-2.2172200000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>36311</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0.18548999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>36341</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5.7529599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>36372</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>4.5753899999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>36403</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>6.5923999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>36433</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>6.9907000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>36464</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>9.5394299999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>36494</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>10.47317</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>36525</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>11.412979999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>36556</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>12.03031</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>36585</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11.76634</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>36616</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>10.091810000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>36646</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>13.57325</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>36677</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>13.059100000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>36707</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>14.74954</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>36738</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.685269999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>36769</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>14.71672</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>36799</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>15.63585</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>36830</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>13.418699999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>36860</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>13.01802</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>36891</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>11.35093</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
         <v>36922</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>12.16108</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>36950</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>9.7060200000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
         <v>36981</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>6.2969999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>37011</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>3.15985</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>37042</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0.71397999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>37072</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>-1.07507</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>37103</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>-0.92818000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>37134</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1.8808800000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
         <v>37164</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>-4.9267300000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
         <v>37195</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>-9.7597199999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>37225</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>-5.6373100000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>37256</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>-2.5463900000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>37287</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>-5.5642399999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>37315</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.56642000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>37346</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>3.3382100000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>37376</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>8.6800999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>37407</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>8.4129900000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>37437</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>8.3763000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
         <v>37468</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>8.5719200000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>37499</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>6.98142</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
         <v>37529</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>6.4111799999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
         <v>37560</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>6.9171800000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
         <v>37590</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>5.5695899999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>37621</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>6.6804300000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>37652</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>7.03179</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>37680</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>4.6189099999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>37711</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>2.0972300000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>37741</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>2.0723600000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>37772</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>2.11374</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
         <v>37802</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2.6418200000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
         <v>37833</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>2.1001300000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>37864</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>4.0205700000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>37894</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>7.9742600000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>37925</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>12.672499999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>37955</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>12.53673</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>37986</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>10.93488</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>38017</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>10.64653</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>38046</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>11.87815</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>38077</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>13.863519999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>38107</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>14.714700000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>38138</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>15.79266</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>38168</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>15.58723</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>38199</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>17.469190000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
         <v>38230</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>19.008120000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>38260</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>17.503540000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>38291</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>17.508430000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>38321</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>15.36665</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>38352</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>15.34545</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>38383</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>13.279249999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>38411</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>16.566759999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>38442</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>15.7225</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>38472</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>16.616479999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>38503</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>11.41935</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>38533</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>13.07438</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>38564</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>14.29203</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>38595</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>14.812290000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>38625</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>16.105609999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>38656</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>16.265840000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
         <v>38686</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>17.514759999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>38717</v>
       </c>
@@ -1989,15 +1989,15 @@
         <v>18.965610000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>38748</v>
       </c>
       <c r="B190" s="16">
-        <v>23.946729999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.946739999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>38776</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>22.435559999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>38807</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>22.789280000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
         <v>38837</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>21.77881</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>38868</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>18.846489999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
         <v>38898</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>20.34404</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
         <v>38929</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>17.491240000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
         <v>38960</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>14.687329999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
         <v>38990</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>18.719639999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
         <v>39021</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>20.11251</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
         <v>39051</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>22.943960000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
         <v>39082</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>22.790459999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
         <v>39113</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>22.538779999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
         <v>39141</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>20.22739</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="13">
         <v>39172</v>
       </c>
@@ -2109,15 +2109,15 @@
         <v>19.9039</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>39202</v>
       </c>
       <c r="B205" s="16">
-        <v>19.921589999999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.921579999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>39233</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>21.136140000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="13">
         <v>39263</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>20.374130000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="13">
         <v>39294</v>
       </c>
@@ -2141,15 +2141,15 @@
         <v>18.532409999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="13">
         <v>39325</v>
       </c>
       <c r="B209" s="16">
-        <v>18.707630000000002</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.707640000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>39355</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>19.669650000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>39386</v>
       </c>
@@ -2165,31 +2165,31 @@
         <v>18.04927</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
         <v>39416</v>
       </c>
       <c r="B212" s="16">
-        <v>19.71781</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.71782</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="13">
         <v>39447</v>
       </c>
       <c r="B213" s="16">
-        <v>19.564520000000002</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.564530000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
         <v>39478</v>
       </c>
       <c r="B214" s="16">
-        <v>19.752929999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.752939999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
         <v>39507</v>
       </c>
@@ -2197,1372 +2197,1380 @@
         <v>17.64912</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
         <v>39538</v>
       </c>
       <c r="B216" s="16">
-        <v>18.08465</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.08464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
         <v>39568</v>
       </c>
       <c r="B217" s="16">
-        <v>14.89766</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.897650000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
         <v>39599</v>
       </c>
       <c r="B218" s="16">
-        <v>13.25849</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.258470000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
         <v>39629</v>
       </c>
       <c r="B219" s="16">
-        <v>10.48502</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.484999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
         <v>39660</v>
       </c>
       <c r="B220" s="16">
-        <v>7.92042</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.9204100000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
         <v>39691</v>
       </c>
       <c r="B221" s="16">
-        <v>5.0385499999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.03857</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
         <v>39721</v>
       </c>
       <c r="B222" s="16">
-        <v>-1.1184000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.1183799999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
         <v>39752</v>
       </c>
       <c r="B223" s="16">
-        <v>-10.68688</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-10.68685</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
         <v>39782</v>
       </c>
       <c r="B224" s="16">
-        <v>-20.444469999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-20.444479999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
         <v>39813</v>
       </c>
       <c r="B225" s="16">
-        <v>-31.87903</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-31.879010000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="13">
         <v>39844</v>
       </c>
       <c r="B226" s="16">
-        <v>-32.317480000000003</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-32.317459999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="13">
         <v>39872</v>
       </c>
       <c r="B227" s="16">
-        <v>-31.503779999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-31.503789999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="13">
         <v>39903</v>
       </c>
       <c r="B228" s="16">
-        <v>-34.091270000000002</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-34.091299999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="13">
         <v>39933</v>
       </c>
       <c r="B229" s="16">
-        <v>-27.53959</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-27.539629999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="13">
         <v>39964</v>
       </c>
       <c r="B230" s="16">
-        <v>-21.528500000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-21.528590000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="13">
         <v>39994</v>
       </c>
       <c r="B231" s="16">
-        <v>-17.034330000000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-17.03435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="13">
         <v>40025</v>
       </c>
       <c r="B232" s="16">
-        <v>-8.2224699999999995</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-8.2224900000000005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="13">
         <v>40056</v>
       </c>
       <c r="B233" s="16">
-        <v>0.57057999999999998</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.5706</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="13">
         <v>40086</v>
       </c>
       <c r="B234" s="16">
-        <v>2.6391399999999998</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2.6392199999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="13">
         <v>40117</v>
       </c>
       <c r="B235" s="16">
-        <v>6.7694999999999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.76966</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="13">
         <v>40147</v>
       </c>
       <c r="B236" s="16">
-        <v>11.40644</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.406420000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="13">
         <v>40178</v>
       </c>
       <c r="B237" s="16">
-        <v>12.285589999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.28566</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="13">
         <v>40209</v>
       </c>
       <c r="B238" s="16">
-        <v>15.321160000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.32122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="13">
         <v>40237</v>
       </c>
       <c r="B239" s="16">
-        <v>18.80667</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.80641</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="13">
         <v>40268</v>
       </c>
       <c r="B240" s="16">
-        <v>18.37011</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.37013</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="13">
         <v>40298</v>
       </c>
       <c r="B241" s="16">
-        <v>20.595610000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.59562</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="13">
         <v>40329</v>
       </c>
       <c r="B242" s="16">
-        <v>20.96509</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.96482</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="13">
         <v>40359</v>
       </c>
       <c r="B243" s="16">
-        <v>21.972639999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21.972660000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="13">
         <v>40390</v>
       </c>
       <c r="B244" s="16">
-        <v>21.220780000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21.22081</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="13">
         <v>40421</v>
       </c>
       <c r="B245" s="16">
-        <v>22.318960000000001</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.319019999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="13">
         <v>40451</v>
       </c>
       <c r="B246" s="16">
-        <v>23.612500000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.612639999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="13">
         <v>40482</v>
       </c>
       <c r="B247" s="16">
-        <v>23.658529999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.65878</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="13">
         <v>40512</v>
       </c>
       <c r="B248" s="16">
-        <v>22.73798</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.738009999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="13">
         <v>40543</v>
       </c>
       <c r="B249" s="16">
-        <v>24.15709</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24.157129999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="13">
         <v>40574</v>
       </c>
       <c r="B250" s="16">
-        <v>26.576609999999999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26.57667</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="13">
         <v>40602</v>
       </c>
       <c r="B251" s="16">
-        <v>24.716370000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24.71585</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="13">
         <v>40633</v>
       </c>
       <c r="B252" s="16">
-        <v>22.665520000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.665600000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="13">
         <v>40663</v>
       </c>
       <c r="B253" s="16">
-        <v>20.59723</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.59731</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="13">
         <v>40694</v>
       </c>
       <c r="B254" s="16">
-        <v>18.8215</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.821069999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="13">
         <v>40724</v>
       </c>
       <c r="B255" s="16">
-        <v>17.15934</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.15943</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="13">
         <v>40755</v>
       </c>
       <c r="B256" s="16">
-        <v>13.15813</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.15821</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="13">
         <v>40786</v>
       </c>
       <c r="B257" s="16">
-        <v>12.033609999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.033670000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="13">
         <v>40816</v>
       </c>
       <c r="B258" s="16">
-        <v>7.78599</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.78613</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="13">
         <v>40847</v>
       </c>
       <c r="B259" s="16">
-        <v>9.64377</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.6440099999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="13">
         <v>40877</v>
       </c>
       <c r="B260" s="16">
-        <v>6.6879299999999997</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.68797</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="13">
         <v>40908</v>
       </c>
       <c r="B261" s="16">
-        <v>9.7428100000000004</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.74282</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="13">
         <v>40939</v>
       </c>
       <c r="B262" s="16">
-        <v>7.5994799999999998</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.5996899999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="13">
         <v>40968</v>
       </c>
       <c r="B263" s="16">
-        <v>8.7384799999999991</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.7379599999999993</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="13">
         <v>40999</v>
       </c>
       <c r="B264" s="16">
-        <v>8.9742099999999994</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.9746000000000006</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="13">
         <v>41029</v>
       </c>
       <c r="B265" s="16">
-        <v>8.8615100000000009</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.8617500000000007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="13">
         <v>41060</v>
       </c>
       <c r="B266" s="16">
-        <v>8.9586699999999997</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.9579900000000006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="13">
         <v>41090</v>
       </c>
       <c r="B267" s="16">
-        <v>5.4319199999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.4317500000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="13">
         <v>41121</v>
       </c>
       <c r="B268" s="16">
-        <v>5.2004099999999998</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.2001999999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="13">
         <v>41152</v>
       </c>
       <c r="B269" s="16">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.4497900000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="13">
         <v>41182</v>
       </c>
       <c r="B270" s="16">
-        <v>1.6646700000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.6647799999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="13">
         <v>41213</v>
       </c>
       <c r="B271" s="16">
-        <v>-1.40994</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.40937</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="13">
         <v>41243</v>
       </c>
       <c r="B272" s="16">
-        <v>5.2686799999999998</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.2695100000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="13">
         <v>41274</v>
       </c>
       <c r="B273" s="16">
-        <v>6.1573799999999999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.1547400000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="13">
         <v>41305</v>
       </c>
       <c r="B274" s="16">
-        <v>6.8700700000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.87155</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="13">
         <v>41333</v>
       </c>
       <c r="B275" s="16">
-        <v>11.16507</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.165850000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="13">
         <v>41364</v>
       </c>
       <c r="B276" s="16">
-        <v>8.53247</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.5340100000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="13">
         <v>41394</v>
       </c>
       <c r="B277" s="16">
-        <v>9.6132100000000005</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.6142400000000006</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="13">
         <v>41425</v>
       </c>
       <c r="B278" s="16">
-        <v>7.1977399999999996</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.1974600000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="13">
         <v>41455</v>
       </c>
       <c r="B279" s="16">
-        <v>9.6121599999999994</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.6085700000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="13">
         <v>41486</v>
       </c>
       <c r="B280" s="16">
-        <v>11.82991</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.829280000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="13">
         <v>41517</v>
       </c>
       <c r="B281" s="16">
-        <v>13.567</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.56636</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="13">
         <v>41547</v>
       </c>
       <c r="B282" s="16">
-        <v>16.156960000000002</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.15681</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="13">
         <v>41578</v>
       </c>
       <c r="B283" s="16">
-        <v>15.068989999999999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.06935</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="13">
         <v>41608</v>
       </c>
       <c r="B284" s="16">
-        <v>18.799510000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.79954</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="13">
         <v>41639</v>
       </c>
       <c r="B285" s="16">
-        <v>15.65865</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.657400000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="13">
         <v>41670</v>
       </c>
       <c r="B286" s="16">
-        <v>16.553190000000001</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.555510000000002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="13">
         <v>41698</v>
       </c>
       <c r="B287" s="16">
-        <v>15.06973</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.07207</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="13">
         <v>41729</v>
       </c>
       <c r="B288" s="16">
-        <v>12.35582</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.35932</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="13">
         <v>41759</v>
       </c>
       <c r="B289" s="16">
-        <v>11.83503</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.8385</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="13">
         <v>41790</v>
       </c>
       <c r="B290" s="16">
-        <v>11.54613</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.548640000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="13">
         <v>41820</v>
       </c>
       <c r="B291" s="16">
-        <v>10.798730000000001</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.794230000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="13">
         <v>41851</v>
       </c>
       <c r="B292" s="16">
-        <v>8.9830400000000008</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.9682099999999991</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="13">
         <v>41882</v>
       </c>
       <c r="B293" s="16">
-        <v>8.4995499999999993</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.4990600000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="13">
         <v>41912</v>
       </c>
       <c r="B294" s="16">
-        <v>6.1453499999999996</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.14452</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="13">
         <v>41943</v>
       </c>
       <c r="B295" s="16">
-        <v>7.1371000000000002</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.1367099999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="13">
         <v>41973</v>
       </c>
       <c r="B296" s="16">
-        <v>6.1173500000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.1172399999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="13">
         <v>42004</v>
       </c>
       <c r="B297" s="16">
-        <v>7.2113199999999997</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.2145099999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="13">
         <v>42035</v>
       </c>
       <c r="B298" s="16">
-        <v>8.5227199999999996</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.5305999999999997</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="13">
         <v>42036</v>
       </c>
       <c r="B299" s="16">
-        <v>10.2227</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.23169</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="13">
         <v>42064</v>
       </c>
       <c r="B300" s="16">
-        <v>11.7066</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.71527</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="13">
         <v>42095</v>
       </c>
       <c r="B301" s="16">
-        <v>11.42534</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.43141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="13">
         <v>42125</v>
       </c>
       <c r="B302" s="16">
-        <v>10.90273</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.90509</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="13">
         <v>42156</v>
       </c>
       <c r="B303" s="16">
-        <v>10.95987</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.948930000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="13">
         <v>42186</v>
       </c>
       <c r="B304" s="16">
-        <v>9.9198000000000004</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.8841199999999994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="13">
         <v>42217</v>
       </c>
       <c r="B305" s="16">
-        <v>11.308299999999999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.30198</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="13">
         <v>42248</v>
       </c>
       <c r="B306" s="16">
-        <v>9.7955000000000005</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.79026</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="13">
         <v>42278</v>
       </c>
       <c r="B307" s="16">
-        <v>7.7511599999999996</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.74953</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="13">
         <v>42309</v>
       </c>
       <c r="B308" s="16">
-        <v>7.5654300000000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.56799</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="13">
         <v>42339</v>
       </c>
       <c r="B309" s="16">
-        <v>9.7731999999999992</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.7909900000000007</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="13">
         <v>42370</v>
       </c>
       <c r="B310" s="16">
-        <v>6.6536200000000001</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.6757600000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="13">
         <v>42401</v>
       </c>
       <c r="B311" s="16">
-        <v>5.33345</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.3573199999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="13">
         <v>42430</v>
       </c>
       <c r="B312" s="16">
-        <v>6.3518299999999996</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="13">
         <v>42461</v>
       </c>
       <c r="B313" s="16">
-        <v>6.2226999999999997</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.2298799999999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="13">
         <v>42491</v>
       </c>
       <c r="B314" s="16">
-        <v>7.2435400000000003</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.2389999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="13">
         <v>42522</v>
       </c>
       <c r="B315" s="16">
-        <v>9.1749799999999997</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.15137</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="13">
         <v>42552</v>
       </c>
       <c r="B316" s="16">
-        <v>8.9406199999999991</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.8736899999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="13">
         <v>42583</v>
       </c>
       <c r="B317" s="16">
-        <v>9.0619399999999999</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.0408200000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="13">
         <v>42614</v>
       </c>
       <c r="B318" s="16">
-        <v>10.525550000000001</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.509880000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="13">
         <v>42644</v>
       </c>
       <c r="B319" s="16">
-        <v>13.06166</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.051920000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="13">
         <v>42675</v>
       </c>
       <c r="B320" s="16">
-        <v>6.9824200000000003</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.9763299999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="13">
         <v>42705</v>
       </c>
       <c r="B321" s="16">
-        <v>9.78233</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.8202499999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="13">
         <v>42736</v>
       </c>
       <c r="B322" s="16">
-        <v>12.499739999999999</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.593540000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="13">
         <v>42767</v>
       </c>
       <c r="B323" s="16">
-        <v>14.45682</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.50705</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="13">
         <v>42795</v>
       </c>
       <c r="B324" s="16">
-        <v>17.652799999999999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.680140000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="13">
         <v>42826</v>
       </c>
       <c r="B325" s="16">
-        <v>18.35699</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.413640000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="13">
         <v>42856</v>
       </c>
       <c r="B326" s="16">
-        <v>20.995899999999999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.999500000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="13">
         <v>42887</v>
       </c>
       <c r="B327" s="16">
-        <v>20.358270000000001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.133839999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="13">
         <v>42917</v>
       </c>
       <c r="B328" s="16">
-        <v>23.974450000000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.89678</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="13">
         <v>42948</v>
       </c>
       <c r="B329" s="16">
-        <v>19.394490000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.37735</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="13">
         <v>42979</v>
       </c>
       <c r="B330" s="16">
-        <v>19.698499999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.684740000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="13">
         <v>43009</v>
       </c>
       <c r="B331" s="16">
-        <v>21.057670000000002</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21.05228</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="13">
         <v>43040</v>
       </c>
       <c r="B332" s="16">
-        <v>20.845970000000001</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.849820000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="13">
         <v>43070</v>
       </c>
       <c r="B333" s="16">
-        <v>20.084759999999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.16564</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="13">
         <v>43101</v>
       </c>
       <c r="B334" s="16">
-        <v>19.52216</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.703859999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="13">
         <v>43132</v>
       </c>
       <c r="B335" s="16">
-        <v>18.630949999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.719339999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="13">
         <v>43160</v>
       </c>
       <c r="B336" s="16">
-        <v>18.704920000000001</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.743120000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="13">
         <v>43191</v>
       </c>
       <c r="B337" s="16">
-        <v>18.33323</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.428349999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="13">
         <v>43221</v>
       </c>
       <c r="B338" s="16">
-        <v>16.004919999999998</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.995419999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="13">
         <v>43252</v>
       </c>
       <c r="B339" s="16">
-        <v>13.43754</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.987830000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="13">
         <v>43282</v>
       </c>
       <c r="B340" s="16">
-        <v>13.93018</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.81423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="13">
         <v>43313</v>
       </c>
       <c r="B341" s="16">
-        <v>12.867100000000001</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.83419</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="13">
         <v>43344</v>
       </c>
       <c r="B342" s="16">
-        <v>12.561820000000001</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.54593</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="13">
         <v>43374</v>
       </c>
       <c r="B343" s="16">
-        <v>10.306469999999999</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.319660000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="13">
         <v>43405</v>
       </c>
       <c r="B344" s="16">
-        <v>10.76155</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.80376</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="13">
         <v>43435</v>
       </c>
       <c r="B345" s="16">
-        <v>7.6253200000000003</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.7866499999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="13">
         <v>43466</v>
       </c>
       <c r="B346" s="16">
-        <v>5.1522300000000003</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.4695</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="13">
         <v>43497</v>
       </c>
       <c r="B347" s="16">
-        <v>7.4989999999999997</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.6612600000000004</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="13">
         <v>43525</v>
       </c>
       <c r="B348" s="16">
-        <v>4.7786200000000001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.8222899999999997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="13">
         <v>43556</v>
       </c>
       <c r="B349" s="16">
-        <v>4.6395</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.7734699999999997</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="13">
         <v>43586</v>
       </c>
       <c r="B350" s="16">
-        <v>5.3292700000000002</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.3058699999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="13">
         <v>43617</v>
       </c>
       <c r="B351" s="16">
-        <v>0.39052999999999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.50236000000000003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="13">
         <v>43647</v>
       </c>
       <c r="B352" s="16">
-        <v>-3.1456599999999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-3.2719999999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="13">
         <v>43678</v>
       </c>
       <c r="B353" s="16">
-        <v>-3.8847299999999998</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-3.91344</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="13">
         <v>43709</v>
       </c>
       <c r="B354" s="16">
-        <v>-8.9762299999999993</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-8.9714600000000004</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="13">
         <v>43739</v>
       </c>
       <c r="B355" s="16">
-        <v>-3.29853</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-3.2377799999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="13">
         <v>43770</v>
       </c>
       <c r="B356" s="16">
-        <v>-1.99366</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.8752200000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="13">
         <v>43800</v>
       </c>
       <c r="B357" s="16">
-        <v>0.73926999999999998</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99955000000000005</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="13">
         <v>43831</v>
       </c>
       <c r="B358" s="16">
-        <v>7.8609999999999999E-2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.50873000000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="13">
         <v>43862</v>
       </c>
       <c r="B359" s="16">
-        <v>-0.77398999999999996</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.53095999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="13">
         <v>43891</v>
       </c>
       <c r="B360" s="16">
-        <v>-17.734010000000001</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-17.683119999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="13">
         <v>43922</v>
       </c>
       <c r="B361" s="16">
-        <v>-47.340530000000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-47.205260000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="13">
         <v>43952</v>
       </c>
       <c r="B362" s="16">
-        <v>-23.72785</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-23.780889999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="13">
         <v>43983</v>
       </c>
       <c r="B363" s="16">
-        <v>-2.7853699999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-4.0714199999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="13">
         <v>44013</v>
       </c>
       <c r="B364" s="16">
-        <v>6.7996100000000004</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.6586600000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="13">
         <v>44044</v>
       </c>
       <c r="B365" s="16">
-        <v>4.7134400000000003</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.6779299999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="13">
         <v>44075</v>
       </c>
       <c r="B366" s="16">
-        <v>6.9774000000000003</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.0010399999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="13">
         <v>44105</v>
       </c>
       <c r="B367" s="16">
-        <v>6.5121099999999998</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.6209699999999998</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="13">
         <v>44136</v>
       </c>
       <c r="B368" s="16">
-        <v>0.13138</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.32102999999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="13">
         <v>44166</v>
       </c>
       <c r="B369" s="16">
-        <v>3.7347800000000002</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.0882699999999996</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="13">
         <v>44197</v>
       </c>
       <c r="B370" s="16">
-        <v>6.6622399999999997</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.2139899999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="13">
         <v>44228</v>
       </c>
       <c r="B371" s="16">
-        <v>11.855230000000001</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.177060000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="13">
         <v>44256</v>
       </c>
       <c r="B372" s="16">
-        <v>23.731449999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.78612</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="13">
         <v>44287</v>
       </c>
       <c r="B373" s="16">
-        <v>25.661300000000001</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25.824090000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="13">
         <v>44317</v>
       </c>
       <c r="B374" s="16">
-        <v>23.095510000000001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.044910000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="13">
         <v>44348</v>
       </c>
       <c r="B375" s="16">
-        <v>24.00179</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.217980000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="13">
         <v>44378</v>
       </c>
       <c r="B376" s="16">
-        <v>22.79682</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.68563</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="13">
         <v>44409</v>
       </c>
       <c r="B377" s="16">
-        <v>16.265709999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.260619999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="13">
         <v>44440</v>
       </c>
       <c r="B378" s="16">
-        <v>20.381769999999999</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.44341</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="13">
         <v>44470</v>
       </c>
       <c r="B379" s="16">
-        <v>13.30625</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13.460599999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="13">
         <v>44501</v>
       </c>
       <c r="B380" s="16">
-        <v>16.305789999999998</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.546569999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="13">
         <v>44531</v>
       </c>
       <c r="B381" s="16">
-        <v>12.74113</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.13443</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="13">
         <v>44562</v>
       </c>
       <c r="B382" s="16">
-        <v>15.48793</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.077480000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="13">
         <v>44593</v>
       </c>
       <c r="B383" s="16">
-        <v>15.8096</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.13888</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="13">
         <v>44621</v>
       </c>
       <c r="B384" s="16">
-        <v>-3.1085199999999999</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-3.0760700000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="13">
         <v>44652</v>
       </c>
       <c r="B385" s="16">
-        <v>3.0457399999999999</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.2107000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="13">
         <v>44682</v>
       </c>
       <c r="B386" s="16">
-        <v>4.4971399999999999</v>
+        <v>4.4307299999999996</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="13">
+        <v>44713</v>
+      </c>
+      <c r="B387" s="16">
+        <v>3.742</v>
       </c>
     </row>
   </sheetData>
